--- a/biology/Médecine/Dissociation_(psychologie)/Dissociation_(psychologie).xlsx
+++ b/biology/Médecine/Dissociation_(psychologie)/Dissociation_(psychologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En psychologie, la dissociation est une « séparation fonctionnelle entre des éléments psychiques ou mentaux qui sont habituellement réunis[1] ». Ainsi, la prise en compte de la réalité et du vécu est inhibée (pensée, jugement, sentiment), de façon temporaire ou durable, pour supporter un traumatisme psychique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En psychologie, la dissociation est une « séparation fonctionnelle entre des éléments psychiques ou mentaux qui sont habituellement réunis ». Ainsi, la prise en compte de la réalité et du vécu est inhibée (pensée, jugement, sentiment), de façon temporaire ou durable, pour supporter un traumatisme psychique.
 On oppose la dissociation à la psychose qui est une perte de contact avec la réalité, et on distingue plusieurs niveaux de dissociation :
 la dissociation primaire isole l’expérience, c'est la situation de stress post-traumatique ;
 la dissociation secondaire est une désintégration de l’expérience, avec un « Moi observant » et un « Moi expérimentant » ;
@@ -491,8 +503,8 @@
 la raison : « Le schizophrène voit ou sent des choses dans une zone psychique inaccessible à sa raison » ;
 la mémoire, c'est l'amnésie post-traumatique ;
 la personnalité, dans le cas du trouble dissociatif de l'identité.
-Le DSM V ajoute encore la fugue dissociative et le trouble dissociatif non spécifié, mais il existe en fait une grande diversité de dissociations, qui forment un continuum[2], depuis le simple détachement de l'environnement immédiat à un refoulement des ressentis physiques et émotionnels[3]. Dans les cas les plus bénins, la dissociation peut être vue comme un mécanisme de défense qui apparaît en cherchant à maîtriser, minimiser ou supporter un stress, y compris l'ennui ou le conflit. À l'opposé dans ce continuum, on trouve la rêverie et enfin les états modifiés de conscience. 
-Certaines incapacités dissociatives impliquent l'amnésie, tandis que d'autres ne l'impliquent pas[4]. On distingue les cas de syndrome dissociatif (schizophrénie) et les troubles dissociatifs (amnésie, dépersonnalisation, déréalisation, trouble dissociatif de l'identité).
+Le DSM V ajoute encore la fugue dissociative et le trouble dissociatif non spécifié, mais il existe en fait une grande diversité de dissociations, qui forment un continuum, depuis le simple détachement de l'environnement immédiat à un refoulement des ressentis physiques et émotionnels. Dans les cas les plus bénins, la dissociation peut être vue comme un mécanisme de défense qui apparaît en cherchant à maîtriser, minimiser ou supporter un stress, y compris l'ennui ou le conflit. À l'opposé dans ce continuum, on trouve la rêverie et enfin les états modifiés de conscience. 
+Certaines incapacités dissociatives impliquent l'amnésie, tandis que d'autres ne l'impliquent pas. On distingue les cas de syndrome dissociatif (schizophrénie) et les troubles dissociatifs (amnésie, dépersonnalisation, déréalisation, trouble dissociatif de l'identité).
 </t>
         </is>
       </c>
@@ -521,9 +533,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Dissociation » mentale, ou psychique, s'oppose étymologiquement à association (mentale ou psychique). L'association désigne la manière, en principe, harmonieuse et coordonnée avec laquelle le cerveau fonctionne et le psychisme s'organise. Les différents appareils psychiques se coordonnent et s'échangent les informations fondamentales pour assurer une présence congruente au monde. En cas de dissociation, il y a un manque de congruence des propos ou des attitudes. Le terme de « schizophrénie » (schizo : « séparation », et phrénie, phrên, -phrène, -phrénie : « esprit ») possède la même origine étymologique. Celui de dissociation a d'ailleurs été utilisé tout d'abord pour désigner les psychoses précoces, dites « schizophrénies »[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Dissociation » mentale, ou psychique, s'oppose étymologiquement à association (mentale ou psychique). L'association désigne la manière, en principe, harmonieuse et coordonnée avec laquelle le cerveau fonctionne et le psychisme s'organise. Les différents appareils psychiques se coordonnent et s'échangent les informations fondamentales pour assurer une présence congruente au monde. En cas de dissociation, il y a un manque de congruence des propos ou des attitudes. Le terme de « schizophrénie » (schizo : « séparation », et phrénie, phrên, -phrène, -phrénie : « esprit ») possède la même origine étymologique. Celui de dissociation a d'ailleurs été utilisé tout d'abord pour désigner les psychoses précoces, dites « schizophrénies ».
 </t>
         </is>
       </c>
@@ -552,11 +566,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les leçons 18 à 22 des Leçons sur les maladies du système nerveux, portant sur sept cas d'hystérie masculine, Jean-Martin Charcot (1825-1893) déclare que les symptômes hystériques sont dus à un « choc » traumatique provoquant une dissociation de la conscience, et 
 dont le souvenir, du fait même, reste inconscient ou subconscient. Il pose là les bases de la théorie « traumatico-dissociative » des névroses, qui sera développée par Pierre Janet, Josef Breuer, Jean Leguirec et Sigmund Freud.
-Le philosophe et psychiatre français Pierre Janet (1859–1947) est considéré être l'auteur du concept de la dissociation[6]. Contrairement à certaines conceptions de la dissociation, Janet ne croyait pas que celle-ci était un moyen de défense psychologique[7]. 
+Le philosophe et psychiatre français Pierre Janet (1859–1947) est considéré être l'auteur du concept de la dissociation. Contrairement à certaines conceptions de la dissociation, Janet ne croyait pas que celle-ci était un moyen de défense psychologique. 
 </t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Différents types de dissociation mentale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, on a identifié plusieurs pathologies dissociatives qui sont différentes de la schizophrénie.
 Sur le plan fonctionnel, la dissociation est un processus mental complexe permettant à des individus de faire face à des situations douloureuses, traumatisantes ou incohérentes. Elle est caractérisée par une désintégration de l'ego. L'intégrité de l'ego peut être définie comme la capacité d'incorporer à la perception les évènements externes ou les expériences sociales et d'agir en conséquence. Une personne incapable de faire cela avec succès peut vivre des dérèglements émotionnels ainsi que l'écroulement potentiel de l'intégrité de l'ego. En d'autres termes, cet état de dérèglement émotionnel peut être si intense qu'il peut produire, dans les cas extrêmes, une « dissociation ».
@@ -622,7 +640,9 @@
           <t>Causes potentielles de troubles dissociatifs de la personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troubles dissociatifs de la personnalité sont attribués à l'interaction de différents facteurs : 
 traumatisme psychologique,
@@ -662,7 +682,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup des symptômes de dissociation mentale peuvent aussi apparaître dans d'autres pathologies. Ces pathologies sont :
 dépressions,
